--- a/pro1/pro1.xlsx
+++ b/pro1/pro1.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\excelprojects\pro1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB863944-4730-403D-8E18-B4F5C800D9A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19770" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="table" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +25,74 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>apr</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>jul</t>
+  </si>
+  <si>
+    <t>aug</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">month </t>
+  </si>
+  <si>
+    <t>expences</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Average2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +100,76 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,17 +177,585 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="1"/>
+        </left>
+        <right style="thick">
+          <color theme="1"/>
+        </right>
+        <top style="thick">
+          <color theme="1"/>
+        </top>
+        <bottom style="thick">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="1"/>
+        </left>
+        <right style="thick">
+          <color theme="1"/>
+        </right>
+        <top style="thick">
+          <color theme="1"/>
+        </top>
+        <bottom style="thick">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="1"/>
+        </left>
+        <right style="thick">
+          <color theme="1"/>
+        </right>
+        <top style="thick">
+          <color theme="1"/>
+        </top>
+        <bottom style="thick">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="1"/>
+        </left>
+        <right style="thick">
+          <color theme="1"/>
+        </right>
+        <top style="thick">
+          <color theme="1"/>
+        </top>
+        <bottom style="thick">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="1"/>
+        </left>
+        <right style="thick">
+          <color theme="1"/>
+        </right>
+        <top style="thick">
+          <color theme="1"/>
+        </top>
+        <bottom style="thick">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="1"/>
+        </left>
+        <right style="thick">
+          <color theme="1"/>
+        </right>
+        <top style="thick">
+          <color theme="1"/>
+        </top>
+        <bottom style="thick">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="1"/>
+        </left>
+        <right style="thick">
+          <color theme="1"/>
+        </right>
+        <top style="thick">
+          <color theme="1"/>
+        </top>
+        <bottom style="thick">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="1"/>
+        </left>
+        <right style="thick">
+          <color theme="1"/>
+        </right>
+        <top style="thick">
+          <color theme="1"/>
+        </top>
+        <bottom style="thick">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="1"/>
+        </left>
+        <right style="thick">
+          <color theme="1"/>
+        </right>
+        <top style="thick">
+          <color theme="1"/>
+        </top>
+        <bottom style="thick">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thick">
+          <color theme="1"/>
+        </right>
+        <top style="thick">
+          <color theme="1"/>
+        </top>
+        <bottom style="thick">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thick">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="thick">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="thick">
+          <color rgb="FFFF0000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color rgb="FFFF0000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thick">
+          <color rgb="FFFF0000"/>
+        </left>
+        <top style="thick">
+          <color rgb="FFFF0000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thick">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +766,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E564125B-67F9-494F-99E6-44D345593BAE}" name="Table1" displayName="Table1" ref="A1:K24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{A13784E7-BAA3-4602-BFA0-44E904D2EEB9}" name="month " dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{E4161259-EF65-478F-8155-D692441D75D6}" name="jan" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{E9221129-0D8C-4909-AC36-9533674484B3}" name="feb" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{BF2B23C8-4BF3-46D6-82E0-35DB7D80865B}" name="mar" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{BA39B8CC-3EFA-435A-932C-273C5976B454}" name="apr" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{8122F555-FF85-499D-BE78-139158EBDEA5}" name="may" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{4F7A58D5-02FE-49A9-BC49-0F6BA9D5609A}" name="jun" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{44E62516-E90C-468B-B048-0F626C6E8C8D}" name="jul" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{23433A3C-61AB-4E3F-8149-053E9BFF61D3}" name="aug" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{8AF16004-BF64-4F97-9C9D-07AC0D87DEEB}" name="total" dataDxfId="1">
+      <calculatedColumnFormula>SUM(C2:I2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{8725A041-EC36-4B07-B5AB-FDCC92E0F939}" name="average" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGE(B2:I2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,10 +1053,980 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="33" customHeight="1" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="3"/>
+    <col min="2" max="16384" width="15.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1500</v>
+      </c>
+      <c r="D2" s="6">
+        <v>500</v>
+      </c>
+      <c r="E2" s="6">
+        <v>600</v>
+      </c>
+      <c r="F2" s="6">
+        <v>40</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1020</v>
+      </c>
+      <c r="H2" s="6">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6">
+        <v>2</v>
+      </c>
+      <c r="J2" s="6">
+        <f>SUM(C2:I2)</f>
+        <v>3667</v>
+      </c>
+      <c r="K2" s="7">
+        <f>AVERAGE(B2:I2)</f>
+        <v>583.375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1500</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1300</v>
+      </c>
+      <c r="G3" s="7">
+        <v>5555</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="7">
+        <f>SUM(C3:I3)</f>
+        <v>13855</v>
+      </c>
+      <c r="K3" s="7">
+        <f>AVERAGE(B3:I3)</f>
+        <v>1919.375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8">
+        <f>B3-B2</f>
+        <v>500</v>
+      </c>
+      <c r="C4" s="7">
+        <f>C3-C2</f>
+        <v>500</v>
+      </c>
+      <c r="D4" s="7">
+        <f>D3-D2</f>
+        <v>500</v>
+      </c>
+      <c r="E4" s="7">
+        <f>E3-E2</f>
+        <v>1400</v>
+      </c>
+      <c r="F4" s="7">
+        <f>F3-F2</f>
+        <v>1260</v>
+      </c>
+      <c r="G4" s="7">
+        <f>G3-G2</f>
+        <v>4535</v>
+      </c>
+      <c r="H4" s="7">
+        <f>H3-H2</f>
+        <v>995</v>
+      </c>
+      <c r="I4" s="7">
+        <f>I3-I2</f>
+        <v>998</v>
+      </c>
+      <c r="J4" s="7">
+        <f>SUM(C4:I4)</f>
+        <v>10188</v>
+      </c>
+      <c r="K4" s="7">
+        <f>AVERAGE(B4:I4)</f>
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1500</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3400</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2560</v>
+      </c>
+      <c r="G5" s="6">
+        <v>10090</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1995</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1998</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" ref="J5:J24" si="0">SUM(C5:I5)</f>
+        <v>24043</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" ref="K5:K24" si="1">AVERAGE(B5:I5)</f>
+        <v>3255.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2500</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4800</v>
+      </c>
+      <c r="F6" s="7">
+        <v>3820</v>
+      </c>
+      <c r="G6" s="7">
+        <v>14625</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2990</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2996</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>34231</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="1"/>
+        <v>4591.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8">
+        <f t="shared" ref="B7:I7" si="2">B6-B5</f>
+        <v>500</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="2"/>
+        <v>1260</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>4535</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="2"/>
+        <v>995</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="2"/>
+        <v>998</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="0"/>
+        <v>10188</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="1"/>
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3000</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3500</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="6">
+        <v>6200</v>
+      </c>
+      <c r="F8" s="6">
+        <v>5080</v>
+      </c>
+      <c r="G8" s="6">
+        <v>19160</v>
+      </c>
+      <c r="H8" s="6">
+        <v>3985</v>
+      </c>
+      <c r="I8" s="6">
+        <v>3994</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="0"/>
+        <v>44419</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="1"/>
+        <v>5927.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8">
+        <v>3500</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4000</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="7">
+        <v>7600</v>
+      </c>
+      <c r="F9" s="7">
+        <v>6340</v>
+      </c>
+      <c r="G9" s="7">
+        <v>23695</v>
+      </c>
+      <c r="H9" s="7">
+        <v>4980</v>
+      </c>
+      <c r="I9" s="7">
+        <v>4992</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="0"/>
+        <v>54607</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="1"/>
+        <v>7263.375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" ref="B10:I10" si="3">B9-B8</f>
+        <v>500</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="3"/>
+        <v>1260</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="3"/>
+        <v>4535</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="3"/>
+        <v>995</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="3"/>
+        <v>998</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="0"/>
+        <v>10188</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="1"/>
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4000</v>
+      </c>
+      <c r="C11" s="6">
+        <v>4500</v>
+      </c>
+      <c r="D11" s="6">
+        <v>3500</v>
+      </c>
+      <c r="E11" s="6">
+        <v>9000</v>
+      </c>
+      <c r="F11" s="6">
+        <v>7600</v>
+      </c>
+      <c r="G11" s="6">
+        <v>28230</v>
+      </c>
+      <c r="H11" s="6">
+        <v>5975</v>
+      </c>
+      <c r="I11" s="6">
+        <v>5990</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="0"/>
+        <v>64795</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="1"/>
+        <v>8599.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <v>4500</v>
+      </c>
+      <c r="C12" s="7">
+        <v>5000</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="7">
+        <v>10400</v>
+      </c>
+      <c r="F12" s="7">
+        <v>8860</v>
+      </c>
+      <c r="G12" s="7">
+        <v>32765</v>
+      </c>
+      <c r="H12" s="7">
+        <v>6970</v>
+      </c>
+      <c r="I12" s="7">
+        <v>6988</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="0"/>
+        <v>74983</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="1"/>
+        <v>9935.375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <f t="shared" ref="B13:I13" si="4">B12-B11</f>
+        <v>500</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="4"/>
+        <v>1400</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="4"/>
+        <v>1260</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="4"/>
+        <v>4535</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="4"/>
+        <v>995</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="4"/>
+        <v>998</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="0"/>
+        <v>10188</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="1"/>
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>5000</v>
+      </c>
+      <c r="C14" s="6">
+        <v>5500</v>
+      </c>
+      <c r="D14" s="6">
+        <v>4500</v>
+      </c>
+      <c r="E14" s="6">
+        <v>11800</v>
+      </c>
+      <c r="F14" s="6">
+        <v>10120</v>
+      </c>
+      <c r="G14" s="6">
+        <v>37300</v>
+      </c>
+      <c r="H14" s="6">
+        <v>7965</v>
+      </c>
+      <c r="I14" s="6">
+        <v>7986</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="0"/>
+        <v>85171</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="1"/>
+        <v>11271.375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8">
+        <v>5500</v>
+      </c>
+      <c r="C15" s="7">
+        <v>6000</v>
+      </c>
+      <c r="D15" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E15" s="7">
+        <v>13200</v>
+      </c>
+      <c r="F15" s="7">
+        <v>11380</v>
+      </c>
+      <c r="G15" s="7">
+        <v>41835</v>
+      </c>
+      <c r="H15" s="7">
+        <v>8960</v>
+      </c>
+      <c r="I15" s="7">
+        <v>8984</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="0"/>
+        <v>95359</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="1"/>
+        <v>12607.375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8">
+        <f t="shared" ref="B16:I16" si="5">B15-B14</f>
+        <v>500</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" si="5"/>
+        <v>500</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="5"/>
+        <v>500</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="5"/>
+        <v>1400</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="5"/>
+        <v>1260</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="5"/>
+        <v>4535</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="5"/>
+        <v>995</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="5"/>
+        <v>998</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="0"/>
+        <v>10188</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="1"/>
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5">
+        <v>6000</v>
+      </c>
+      <c r="C17" s="6">
+        <v>6500</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5500</v>
+      </c>
+      <c r="E17" s="6">
+        <v>14600</v>
+      </c>
+      <c r="F17" s="6">
+        <v>12640</v>
+      </c>
+      <c r="G17" s="6">
+        <v>46370</v>
+      </c>
+      <c r="H17" s="6">
+        <v>9955</v>
+      </c>
+      <c r="I17" s="6">
+        <v>9982</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="0"/>
+        <v>105547</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="1"/>
+        <v>13943.375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="8">
+        <v>6500</v>
+      </c>
+      <c r="C18" s="7">
+        <v>7000</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6000</v>
+      </c>
+      <c r="E18" s="7">
+        <v>16000</v>
+      </c>
+      <c r="F18" s="7">
+        <v>13900</v>
+      </c>
+      <c r="G18" s="7">
+        <v>50905</v>
+      </c>
+      <c r="H18" s="7">
+        <v>10950</v>
+      </c>
+      <c r="I18" s="7">
+        <v>10980</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="0"/>
+        <v>115735</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="1"/>
+        <v>15279.375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="8">
+        <f t="shared" ref="B19:I19" si="6">B18-B17</f>
+        <v>500</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="6"/>
+        <v>1400</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="6"/>
+        <v>1260</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="6"/>
+        <v>4535</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="6"/>
+        <v>995</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="6"/>
+        <v>998</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="0"/>
+        <v>10188</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="1"/>
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5">
+        <v>7000</v>
+      </c>
+      <c r="C20" s="6">
+        <v>7500</v>
+      </c>
+      <c r="D20" s="6">
+        <v>6500</v>
+      </c>
+      <c r="E20" s="6">
+        <v>17400</v>
+      </c>
+      <c r="F20" s="6">
+        <v>15160</v>
+      </c>
+      <c r="G20" s="6">
+        <v>55440</v>
+      </c>
+      <c r="H20" s="6">
+        <v>11945</v>
+      </c>
+      <c r="I20" s="6">
+        <v>11978</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="0"/>
+        <v>125923</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" si="1"/>
+        <v>16615.375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="8">
+        <v>7500</v>
+      </c>
+      <c r="C21" s="7">
+        <v>8000</v>
+      </c>
+      <c r="D21" s="7">
+        <v>7000</v>
+      </c>
+      <c r="E21" s="7">
+        <v>18800</v>
+      </c>
+      <c r="F21" s="7">
+        <v>16420</v>
+      </c>
+      <c r="G21" s="7">
+        <v>59975</v>
+      </c>
+      <c r="H21" s="7">
+        <v>12940</v>
+      </c>
+      <c r="I21" s="7">
+        <v>12976</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="0"/>
+        <v>136111</v>
+      </c>
+      <c r="K21" s="7">
+        <f t="shared" si="1"/>
+        <v>17951.375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" ref="B22:I22" si="7">B21-B20</f>
+        <v>500</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="7"/>
+        <v>1400</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="7"/>
+        <v>1260</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="7"/>
+        <v>4535</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="7"/>
+        <v>995</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="7"/>
+        <v>998</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="0"/>
+        <v>10188</v>
+      </c>
+      <c r="K22" s="7">
+        <f t="shared" si="1"/>
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="5">
+        <v>8000</v>
+      </c>
+      <c r="C23" s="6">
+        <v>8500</v>
+      </c>
+      <c r="D23" s="6">
+        <v>7500</v>
+      </c>
+      <c r="E23" s="6">
+        <v>20200</v>
+      </c>
+      <c r="F23" s="6">
+        <v>17680</v>
+      </c>
+      <c r="G23" s="6">
+        <v>64510</v>
+      </c>
+      <c r="H23" s="6">
+        <v>13935</v>
+      </c>
+      <c r="I23" s="6">
+        <v>13974</v>
+      </c>
+      <c r="J23" s="6">
+        <f t="shared" si="0"/>
+        <v>146299</v>
+      </c>
+      <c r="K23" s="7">
+        <f t="shared" si="1"/>
+        <v>19287.375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="8">
+        <v>8500</v>
+      </c>
+      <c r="C24" s="7">
+        <v>9000</v>
+      </c>
+      <c r="D24" s="7">
+        <v>8000</v>
+      </c>
+      <c r="E24" s="7">
+        <v>21600</v>
+      </c>
+      <c r="F24" s="7">
+        <v>18940</v>
+      </c>
+      <c r="G24" s="7">
+        <v>69045</v>
+      </c>
+      <c r="H24" s="7">
+        <v>14930</v>
+      </c>
+      <c r="I24" s="7">
+        <v>14972</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="0"/>
+        <v>156487</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" si="1"/>
+        <v>20623.375</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B53FD6E-F854-4F1A-94DD-444540CA0D15}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
